--- a/data/excel/teams.xlsx
+++ b/data/excel/teams.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99500000</v>
+        <v>81500000</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83000000</v>
+        <v>68000000</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98000000</v>
+        <v>82000000</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>102000000</v>
+        <v>130000000</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>106000000</v>
+        <v>81000000</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100000000</v>
+        <v>96000000</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>96000000</v>
+        <v>94000000</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>85000000</v>
+        <v>76500000</v>
       </c>
     </row>
   </sheetData>
